--- a/src/main/resources/ForTest.xlsx
+++ b/src/main/resources/ForTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Print\IdeaProjects\NewProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t>pyqAbAt</t>
   </si>
   <si>
-    <t>mngr186603Invalid</t>
+    <t>Invalid_ID</t>
   </si>
   <si>
-    <t>pyqAbAtqInvalid</t>
+    <t>Invalid_pass</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
